--- a/Profughi ucraini/Italia.xlsx
+++ b/Profughi ucraini/Italia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/INFN-ISS/Profughi ucraini/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578715CD-F329-EC44-882A-4588AB0BF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF5B1D7-3F96-4144-9A38-D45D7064A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="500" windowWidth="27640" windowHeight="16000" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16000" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Cumulato" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,8 @@
         <v>10553</v>
       </c>
       <c r="C8" s="7">
-        <v>0.5</v>
+        <f>B8/H8</f>
+        <v>0.50026072529035315</v>
       </c>
       <c r="D8" s="6">
         <v>1989</v>
@@ -738,7 +739,39 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
+      <c r="A9" s="5">
+        <v>44629</v>
+      </c>
+      <c r="B9" s="6">
+        <v>11955</v>
+      </c>
+      <c r="C9" s="7">
+        <f>B9/H9</f>
+        <v>0.50079591152815017</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="7">
+        <f>D9/H9</f>
+        <v>9.2158176943699738E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9717</v>
+      </c>
+      <c r="G9" s="7">
+        <f>F9/H9</f>
+        <v>0.40704591152815012</v>
+      </c>
+      <c r="H9" s="8">
+        <v>23872</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
@@ -2765,6 +2798,7 @@
     <hyperlink ref="J6" r:id="rId5" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-sono-14237-i-profughi-accolti-italia-finora" xr:uid="{EFEFBBF6-B758-5649-B8FF-7936866266D7}"/>
     <hyperlink ref="J7" r:id="rId6" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-sono-17286-i-profughi-accolti-italia-finora" xr:uid="{DCE1E46F-8029-AF40-B4F4-41031AA96B0E}"/>
     <hyperlink ref="J8" r:id="rId7" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-21095-i-profughi-finora-italia" xr:uid="{309E95B5-25D8-5742-AB55-A98B05F40393}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{1744B136-8800-3B4A-BD0A-E9AD85F0B187}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2773,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8277BDC-BABA-1F4A-ABD7-1759E94A11ED}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3002,6 +3036,41 @@
         <v>10</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>44629</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1402</v>
+      </c>
+      <c r="C8" s="7">
+        <f>B8/H8</f>
+        <v>0.50486136118113067</v>
+      </c>
+      <c r="D8" s="8">
+        <v>211</v>
+      </c>
+      <c r="E8" s="7">
+        <f>D8/H8</f>
+        <v>7.5981274756931935E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1164</v>
+      </c>
+      <c r="G8" s="7">
+        <f>F8/H8</f>
+        <v>0.41915736406193732</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2777</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3013,6 +3082,7 @@
     <hyperlink ref="J5" r:id="rId4" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-sono-14237-i-profughi-accolti-italia-finora" xr:uid="{5CED0E97-787B-844E-9A39-5413EA90C980}"/>
     <hyperlink ref="J6" r:id="rId5" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-sono-17286-i-profughi-accolti-italia-finora" xr:uid="{733D96B9-4B0F-6A44-A9FF-BB8CDD3A8856}"/>
     <hyperlink ref="J7" r:id="rId6" display="https://www.interno.gov.it/it/notizie/crisi-ucraina-21095-i-profughi-finora-italia" xr:uid="{63C26EF4-DDED-C146-95AC-1968951CCC10}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{4607A185-A087-2246-8545-EF0803451080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
